--- a/workforce_size/berlin_db=4.00_workforce_size.xlsx
+++ b/workforce_size/berlin_db=4.00_workforce_size.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,408 +436,832 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>instance_file_base</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>demand_baseline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_n_shifts</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>outsourcing_cost_multiplier</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>regional_multiplier</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>global_multiplier</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>workforce_size</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>max_n_shifts</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>workforce_size_region0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>objective_value_prev</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>objective_value</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>objective_value_next</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>workforce_size_region0_new</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
         <v>1.2</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>98</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>7520.429619046175</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7520.42961904619</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>flex</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I3" t="n">
         <v>44</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>7345.612380950936</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7345.912380950936</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>98</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>7520.429619046175</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7520.42961904619</v>
+      </c>
+      <c r="M4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>7345.612380950936</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7345.912380950936</v>
+      </c>
+      <c r="M5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>7345.612380950936</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7345.912380950936</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>102</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>9194.949523809813</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9194.949523809817</v>
+      </c>
+      <c r="M7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>flex</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I8" t="n">
         <v>44</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>9003.798808460506</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9004.25797619088</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>102</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>9194.949523809813</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9194.949523809817</v>
+      </c>
+      <c r="M9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>9003.798808460506</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9004.25797619088</v>
+      </c>
+      <c r="M10" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>9003.798808460506</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9004.25797619088</v>
+      </c>
+      <c r="M11" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
         <v>1.8</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="G12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>107</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>10866.01942857186</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10866.01942857187</v>
+      </c>
+      <c r="M12" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>flex</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>44</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>10658.433571339</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10658.43357142905</v>
+      </c>
+      <c r="M13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>flex</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="F14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>107</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>10866.01942857186</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10866.01942857187</v>
+      </c>
+      <c r="M14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I15" t="n">
         <v>44</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>flex</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>10658.433571339</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10658.43357142905</v>
+      </c>
+      <c r="M15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I16" t="n">
         <v>44</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>44</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>44</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>44</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>44</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>44</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>44</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>44</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>44</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>44</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>10658.433571339</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10658.43357142905</v>
+      </c>
+      <c r="M16" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.5</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>98</v>
-      </c>
+          <t>fixed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>2</v>
       </c>
+      <c r="G17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>109</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11978.66158730191</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11978.66158730192</v>
+      </c>
+      <c r="M17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.5</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>partflex</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>102</v>
-      </c>
+          <t>flex</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>2</v>
       </c>
+      <c r="G18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>44</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>11759.12174603191</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11759.12174603191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.5</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -845,21 +1269,44 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
+      <c r="G19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>109</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11978.66158730191</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11978.66158730192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.5</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -867,21 +1314,44 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
+      <c r="G20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>44</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11759.12174603191</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11759.12174603191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.5</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -889,111 +1359,251 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
+      <c r="G21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>44</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>11759.12174603191</v>
+      </c>
+      <c r="L21" t="n">
+        <v>11759.12174603191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.5</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>fixed</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>98</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>115</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14752.93611111119</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14752.93611111121</v>
+      </c>
+      <c r="M22" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.5</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>102</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>flex</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>44</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>14503.15218253979</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14503.15218253979</v>
+      </c>
+      <c r="M23" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.5</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>partflex</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>107</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>115</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>14752.93611111119</v>
+      </c>
+      <c r="L24" t="n">
+        <v>14752.93611111121</v>
+      </c>
+      <c r="M24" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.5</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>partflex</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>109</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>44</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>14503.15218253979</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14503.15218253979</v>
+      </c>
+      <c r="M25" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>paris_db=0.50</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>paris</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>partflex</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
         <v>2.5</v>
       </c>
-      <c r="B26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>115</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>44</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>14503.15218253979</v>
+      </c>
+      <c r="L26" t="n">
+        <v>14503.15218253979</v>
+      </c>
+      <c r="M26" t="n">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workforce_size/berlin_db=4.00_workforce_size.xlsx
+++ b/workforce_size/berlin_db=4.00_workforce_size.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,25 +494,20 @@
           <t>objective_value_next</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>workforce_size_region0_new</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -534,28 +529,25 @@
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>7520.429619046175</v>
+        <v>26926.88685714164</v>
       </c>
       <c r="L2" t="n">
-        <v>7520.42961904619</v>
-      </c>
-      <c r="M2" t="n">
-        <v>32</v>
+        <v>26926.88685714164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -577,28 +569,23 @@
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>7345.612380950936</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7345.912380950936</v>
-      </c>
-      <c r="M3" t="n">
-        <v>27</v>
-      </c>
+        <v>27851.42112698255</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -622,28 +609,25 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>7520.429619046175</v>
+        <v>26926.88685714164</v>
       </c>
       <c r="L4" t="n">
-        <v>7520.42961904619</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32</v>
+        <v>26926.88685714164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -667,28 +651,23 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>7345.612380950936</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7345.912380950936</v>
-      </c>
-      <c r="M5" t="n">
-        <v>27</v>
-      </c>
+        <v>27851.42112698255</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -712,28 +691,23 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>7345.612380950936</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7345.912380950936</v>
-      </c>
-      <c r="M6" t="n">
-        <v>27</v>
-      </c>
+        <v>27851.42112698255</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -755,28 +729,25 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>9194.949523809813</v>
+        <v>33052.20702380955</v>
       </c>
       <c r="L7" t="n">
-        <v>9194.949523809817</v>
-      </c>
-      <c r="M7" t="n">
-        <v>33</v>
+        <v>33052.20702380955</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -798,28 +769,23 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>9003.798808460506</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9004.25797619088</v>
-      </c>
-      <c r="M8" t="n">
-        <v>29</v>
-      </c>
+        <v>34636.50640873009</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -843,28 +809,25 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>9194.949523809813</v>
+        <v>33052.20702380955</v>
       </c>
       <c r="L9" t="n">
-        <v>9194.949523809817</v>
-      </c>
-      <c r="M9" t="n">
-        <v>33</v>
+        <v>33052.20702380955</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -888,28 +851,23 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>9003.798808460506</v>
-      </c>
-      <c r="L10" t="n">
-        <v>9004.25797619088</v>
-      </c>
-      <c r="M10" t="n">
-        <v>29</v>
-      </c>
+        <v>34636.50640873009</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -933,28 +891,23 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>9003.798808460506</v>
-      </c>
-      <c r="L11" t="n">
-        <v>9004.25797619088</v>
-      </c>
-      <c r="M11" t="n">
-        <v>29</v>
-      </c>
+        <v>34636.50640873009</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -976,28 +929,25 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>10866.01942857186</v>
+        <v>39152.95559523725</v>
       </c>
       <c r="L12" t="n">
-        <v>10866.01942857187</v>
-      </c>
-      <c r="M12" t="n">
-        <v>34</v>
+        <v>39152.95559523725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1019,28 +969,23 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>10658.433571339</v>
-      </c>
-      <c r="L13" t="n">
-        <v>10658.43357142905</v>
-      </c>
-      <c r="M13" t="n">
-        <v>30</v>
-      </c>
+        <v>41347.80769047538</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1064,28 +1009,25 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>10866.01942857186</v>
+        <v>39152.95559523725</v>
       </c>
       <c r="L14" t="n">
-        <v>10866.01942857187</v>
-      </c>
-      <c r="M14" t="n">
-        <v>34</v>
+        <v>39152.95559523725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1109,28 +1051,23 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>10658.433571339</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10658.43357142905</v>
-      </c>
-      <c r="M15" t="n">
-        <v>30</v>
-      </c>
+        <v>41347.80769047538</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1154,28 +1091,23 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>10658.433571339</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10658.43357142905</v>
-      </c>
-      <c r="M16" t="n">
-        <v>30</v>
-      </c>
+        <v>41347.80769047538</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1197,28 +1129,25 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>11978.66158730191</v>
+        <v>43213.15224867707</v>
       </c>
       <c r="L17" t="n">
-        <v>11978.66158730192</v>
-      </c>
-      <c r="M17" t="n">
-        <v>34</v>
+        <v>43213.15224867707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1240,28 +1169,23 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>11759.12174603191</v>
-      </c>
-      <c r="L18" t="n">
-        <v>11759.12174603191</v>
-      </c>
-      <c r="M18" t="n">
-        <v>30</v>
-      </c>
+        <v>45683.03521163999</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1285,28 +1209,25 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>11978.66158730191</v>
+        <v>43213.15224867707</v>
       </c>
       <c r="L19" t="n">
-        <v>11978.66158730192</v>
-      </c>
-      <c r="M19" t="n">
-        <v>34</v>
+        <v>43213.15224867707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1330,28 +1251,23 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>11759.12174603191</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11759.12174603191</v>
-      </c>
-      <c r="M20" t="n">
-        <v>30</v>
-      </c>
+        <v>45683.03521163999</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1375,28 +1291,23 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>11759.12174603191</v>
-      </c>
-      <c r="L21" t="n">
-        <v>11759.12174603191</v>
-      </c>
-      <c r="M21" t="n">
-        <v>30</v>
-      </c>
+        <v>45683.03521163999</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1418,28 +1329,25 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>14752.93611111119</v>
+        <v>53331.85899470895</v>
       </c>
       <c r="L22" t="n">
-        <v>14752.93611111121</v>
-      </c>
-      <c r="M22" t="n">
-        <v>36</v>
+        <v>53331.85899470895</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1461,28 +1369,23 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>14503.15218253979</v>
-      </c>
-      <c r="L23" t="n">
-        <v>14503.15218253979</v>
-      </c>
-      <c r="M23" t="n">
-        <v>31</v>
-      </c>
+        <v>56827.79401455008</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1506,28 +1409,25 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>14752.93611111119</v>
+        <v>53331.85899470895</v>
       </c>
       <c r="L24" t="n">
-        <v>14752.93611111121</v>
-      </c>
-      <c r="M24" t="n">
-        <v>36</v>
+        <v>53331.85899470895</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1551,28 +1451,23 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>14503.15218253979</v>
-      </c>
-      <c r="L25" t="n">
-        <v>14503.15218253979</v>
-      </c>
-      <c r="M25" t="n">
-        <v>31</v>
-      </c>
+        <v>56827.79401455008</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>paris_db=0.50</t>
+          <t>berlin_db=4.00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>berlin</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1596,14 +1491,9 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>14503.15218253979</v>
-      </c>
-      <c r="L26" t="n">
-        <v>14503.15218253979</v>
-      </c>
-      <c r="M26" t="n">
-        <v>31</v>
-      </c>
+        <v>56827.79401455008</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
